--- a/Experiments/Results/experiment_results_basic_averages.xlsx
+++ b/Experiments/Results/experiment_results_basic_averages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\A - Drive\Universitat\2n any\Q1\ABIA\Pràctica 2\ABIA-practica-2\Experiments\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BF6A1F-B03E-4349-8D12-C1CD30BC4C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4299D7C3-399E-44B7-BB04-D3C4AACE8E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -289,98 +289,98 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$A$3:$A$47</c:f>
+              <c:f>Worksheet!$A$3:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>
 1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>
+2</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>
-2</c:v>
+3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>
+4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>
-3</c:v>
+5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>
+6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>
-4</c:v>
+7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>
+8</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>
-5</c:v>
+9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>
+10</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>
-6</c:v>
+11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>
+12</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>
-7</c:v>
+13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>
+14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>
-8</c:v>
+15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>
+16</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>
-9</c:v>
+17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>
+18</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>
-10</c:v>
+19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>
+20</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>
-11</c:v>
+21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>
+22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>
-12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>
-13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>
-14</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>
-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>
-16</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>
-17</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>
-18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>
-19</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>
-20</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>
-21</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>
-22</c:v>
-                </c:pt>
-                <c:pt idx="44">
                   <c:v>
 23</c:v>
                 </c:pt>
@@ -389,77 +389,77 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$B$3:$B$47</c:f>
+              <c:f>Worksheet!$B$3:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.06</c:v>
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0999999999999999E-2</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.3999999999999996E-2</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.6000000000000003E-2</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.6000000000000003E-2</c:v>
+                  <c:v>0.24199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>0.23599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.325</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.5000000000000002E-2</c:v>
+                  <c:v>0.251</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.3169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.111</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.106</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.24199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.111</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.23599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.325</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.251</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.3169999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
                   <c:v>6.4770000000000003</c:v>
                 </c:pt>
               </c:numCache>
@@ -497,98 +497,98 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Worksheet!$A$3:$A$47</c:f>
+              <c:f>Worksheet!$A$3:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>
 1</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>
+2</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>
-2</c:v>
+3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>
+4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>
-3</c:v>
+5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>
+6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>
-4</c:v>
+7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>
+8</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>
-5</c:v>
+9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>
+10</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>
-6</c:v>
+11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>
+12</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>
-7</c:v>
+13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>
+14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>
-8</c:v>
+15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>
+16</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>
-9</c:v>
+17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>
+18</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>
-10</c:v>
+19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>
+20</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>
-11</c:v>
+21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>
+22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>
-12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>
-13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>
-14</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>
-15</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>
-16</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>
-17</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>
-18</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>
-19</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>
-20</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>
-21</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>
-22</c:v>
-                </c:pt>
-                <c:pt idx="44">
                   <c:v>
 23</c:v>
                 </c:pt>
@@ -597,78 +597,78 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Worksheet!$D$3:$D$47</c:f>
+              <c:f>Worksheet!$D$3:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>5.3999999999999999E-2</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5E-2</c:v>
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.6999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6000000000000001E-2</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.06</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8000000000000003E-2</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.2E-2</c:v>
+                  <c:v>0.32600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.06</c:v>
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9670000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.7000000000000002E-2</c:v>
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.9790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.9000000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.106</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.2999999999999995E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.246</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.10199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.27600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.255</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.5249999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.7329999999999997</c:v>
+                  <c:v>9.7929999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,101 +726,101 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Worksheet!$A$3:$A$47</c15:sqref>
+                          <c15:sqref>Worksheet!$A$3:$A$25</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="45"/>
+                      <c:ptCount val="23"/>
                       <c:pt idx="0">
                         <c:v>
 1</c:v>
                       </c:pt>
+                      <c:pt idx="1">
+                        <c:v>
+2</c:v>
+                      </c:pt>
                       <c:pt idx="2">
                         <c:v>
-2</c:v>
+3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>
+4</c:v>
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>
-3</c:v>
+5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>
+6</c:v>
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>
-4</c:v>
+7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>
+8</c:v>
                       </c:pt>
                       <c:pt idx="8">
                         <c:v>
-5</c:v>
+9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>
+10</c:v>
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>
-6</c:v>
+11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>
+12</c:v>
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>
-7</c:v>
+13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>
+14</c:v>
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>
-8</c:v>
+15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>
+16</c:v>
                       </c:pt>
                       <c:pt idx="16">
                         <c:v>
-9</c:v>
+17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>
+18</c:v>
                       </c:pt>
                       <c:pt idx="18">
                         <c:v>
-10</c:v>
+19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>
+20</c:v>
                       </c:pt>
                       <c:pt idx="20">
                         <c:v>
-11</c:v>
+21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>
+22</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>
-12</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>
-13</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>
-14</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>
-15</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>
-16</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>
-17</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>
-18</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>
-19</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>
-20</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>
-21</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>
-22</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
                         <c:v>
 23</c:v>
                       </c:pt>
@@ -832,13 +832,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Worksheet!$C$3:$C$47</c15:sqref>
+                          <c15:sqref>Worksheet!$C$3:$C$25</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="45"/>
+                      <c:ptCount val="23"/>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -1582,16 +1582,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1906,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1941,250 +1941,250 @@
         <v>0.06</v>
       </c>
       <c r="D3">
-        <v>5.3999999999999999E-2</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.06</v>
+      </c>
+      <c r="D4">
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.06</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D5">
-        <v>5.6000000000000001E-2</v>
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>6.2E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>5.5E-2</v>
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>6.0999999999999999E-2</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="D9">
-        <v>5.6000000000000001E-2</v>
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D10">
+        <v>6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>6.0999999999999999E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D11">
-        <v>5.6000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D12">
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>6.0999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="D13">
-        <v>0.06</v>
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D14">
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>7.3999999999999996E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D15">
-        <v>5.8999999999999997E-2</v>
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.111</v>
+      </c>
+      <c r="D16">
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>6.6000000000000003E-2</v>
+        <v>0.08</v>
       </c>
       <c r="D17">
-        <v>5.8000000000000003E-2</v>
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.106</v>
+      </c>
+      <c r="D18">
+        <v>0.11</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>6.6000000000000003E-2</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D19">
-        <v>6.2E-2</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.111</v>
+      </c>
+      <c r="D20">
+        <v>0.17599999999999999</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>6.7000000000000004E-2</v>
+        <v>0.23599999999999999</v>
       </c>
       <c r="D21">
-        <v>0.06</v>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1.325</v>
+      </c>
+      <c r="D22">
+        <v>1.9670000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>6.5000000000000002E-2</v>
+        <v>0.251</v>
       </c>
       <c r="D23">
-        <v>5.7000000000000002E-2</v>
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1.3169999999999999</v>
+      </c>
+      <c r="D24">
+        <v>1.9790000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>6.9000000000000006E-2</v>
+        <v>6.4770000000000003</v>
       </c>
       <c r="D25">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>0.08</v>
-      </c>
-      <c r="D27">
-        <v>6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29">
-        <v>0.111</v>
-      </c>
-      <c r="D29">
-        <v>0.106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31">
-        <v>0.08</v>
-      </c>
-      <c r="D31">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33">
-        <v>0.106</v>
-      </c>
-      <c r="D33">
-        <v>0.112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="D35">
-        <v>0.246</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37">
-        <v>0.111</v>
-      </c>
-      <c r="D37">
-        <v>0.10199999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="D39">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41">
-        <v>1.325</v>
-      </c>
-      <c r="D41">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43">
-        <v>0.251</v>
-      </c>
-      <c r="D43">
-        <v>0.255</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>1.3169999999999999</v>
-      </c>
-      <c r="D45">
-        <v>1.5249999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47">
-        <v>6.4770000000000003</v>
-      </c>
-      <c r="D47">
-        <v>6.7329999999999997</v>
+        <v>9.7929999999999993</v>
       </c>
     </row>
   </sheetData>
